--- a/ENPH.xlsx
+++ b/ENPH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C10880-3546-4C23-AB6C-8B005177152E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF1BA16-6F13-4C49-93CE-43748A5C573D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20790" yWindow="405" windowWidth="20445" windowHeight="20265" activeTab="1" xr2:uid="{229527CA-1BF0-4C27-AEF5-BA9B90689A4C}"/>
+    <workbookView xWindow="-30315" yWindow="1815" windowWidth="26985" windowHeight="18900" activeTab="1" xr2:uid="{229527CA-1BF0-4C27-AEF5-BA9B90689A4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>Price</t>
   </si>
@@ -154,13 +154,25 @@
   </si>
   <si>
     <t>FCF</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -171,6 +183,13 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -192,10 +211,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -215,8 +235,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -703,28 +725,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DFB323-0422-400F-BE76-5AC65C2C7D49}">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="9.140625" style="2"/>
+    <col min="3" max="15" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>37</v>
       </c>
@@ -752,37 +774,49 @@
       <c r="K2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N2">
+      <c r="L2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2">
         <v>2020</v>
       </c>
-      <c r="O2">
+      <c r="S2">
         <v>2021</v>
       </c>
-      <c r="P2">
+      <c r="T2">
         <v>2022</v>
       </c>
-      <c r="Q2">
+      <c r="U2">
         <v>2023</v>
       </c>
-      <c r="R2">
+      <c r="V2">
         <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>33</v>
       </c>
       <c r="I3" s="2">
         <v>1.4026019999999999</v>
       </c>
-      <c r="P3">
+      <c r="T3">
         <v>15.5</v>
       </c>
-      <c r="Q3">
+      <c r="U3">
         <v>15.4</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>34</v>
       </c>
@@ -792,14 +826,14 @@
       <c r="J4" s="2">
         <v>170</v>
       </c>
-      <c r="P4">
+      <c r="T4">
         <v>508.5</v>
       </c>
-      <c r="Q4">
+      <c r="U4">
         <v>351.6</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
@@ -825,20 +859,26 @@
         <v>303.45800000000003</v>
       </c>
       <c r="J6" s="6">
-        <v>390</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="O6" s="5">
+        <v>380.9</v>
+      </c>
+      <c r="K6" s="6">
+        <v>380</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="S6" s="5">
         <v>1382.049</v>
       </c>
-      <c r="P6" s="5">
+      <c r="T6" s="5">
         <v>2330.8530000000001</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="U6" s="5">
         <v>2290.7860000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
@@ -855,17 +895,21 @@
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="O7" s="3">
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="S7" s="3">
         <v>827.62699999999995</v>
       </c>
-      <c r="P7" s="3">
+      <c r="T7" s="3">
         <v>1356.258</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="U7" s="3">
         <v>1232.3979999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
@@ -884,20 +928,24 @@
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="O8" s="3">
-        <f t="shared" ref="O8:P8" si="0">+O6-O7</f>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="S8" s="3">
+        <f t="shared" ref="S8:T8" si="0">+S6-S7</f>
         <v>554.42200000000003</v>
       </c>
-      <c r="P8" s="3">
+      <c r="T8" s="3">
         <f t="shared" si="0"/>
         <v>974.59500000000003</v>
       </c>
-      <c r="Q8" s="3">
-        <f>+Q6-Q7</f>
+      <c r="U8" s="3">
+        <f>+U6-U7</f>
         <v>1058.3880000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
@@ -914,17 +962,21 @@
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="O9" s="3">
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="S9" s="3">
         <v>105.526</v>
       </c>
-      <c r="P9" s="3">
+      <c r="T9" s="3">
         <v>168.846</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="U9" s="3">
         <v>227.33600000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
@@ -941,17 +993,21 @@
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="O10" s="3">
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="S10" s="3">
         <v>128.97399999999999</v>
       </c>
-      <c r="P10" s="3">
+      <c r="T10" s="3">
         <v>215.102</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="U10" s="3">
         <v>231.792</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
@@ -968,17 +1024,21 @@
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="O11" s="3">
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="S11" s="3">
         <v>104.09</v>
       </c>
-      <c r="P11" s="3">
+      <c r="T11" s="3">
         <v>140.00200000000001</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="U11" s="3">
         <v>137.83500000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
@@ -1006,20 +1066,24 @@
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="O12" s="3">
-        <f t="shared" ref="O12:P12" si="2">SUM(O9:O11)</f>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="S12" s="3">
+        <f t="shared" ref="S12:T12" si="2">SUM(S9:S11)</f>
         <v>338.59000000000003</v>
       </c>
-      <c r="P12" s="3">
+      <c r="T12" s="3">
         <f t="shared" si="2"/>
         <v>523.95000000000005</v>
       </c>
-      <c r="Q12" s="3">
-        <f>SUM(Q9:Q11)</f>
+      <c r="U12" s="3">
+        <f>SUM(U9:U11)</f>
         <v>596.96300000000008</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
@@ -1047,20 +1111,24 @@
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="O13" s="3">
-        <f t="shared" ref="O13:P13" si="4">+O8-O12</f>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="S13" s="3">
+        <f t="shared" ref="S13:T13" si="4">+S8-S12</f>
         <v>215.83199999999999</v>
       </c>
-      <c r="P13" s="3">
+      <c r="T13" s="3">
         <f t="shared" si="4"/>
         <v>450.64499999999998</v>
       </c>
-      <c r="Q13" s="3">
-        <f>+Q8-Q12</f>
+      <c r="U13" s="3">
+        <f>+U8-U12</f>
         <v>461.42500000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
@@ -1078,18 +1146,22 @@
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="O14" s="3">
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="S14" s="3">
         <f>0.695-45.152</f>
         <v>-44.457000000000001</v>
       </c>
-      <c r="P14" s="3">
+      <c r="T14" s="3">
         <v>3.7869999999999999</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="U14" s="3">
         <v>67.397999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
@@ -1108,20 +1180,24 @@
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="O15" s="3">
-        <f>+O13+O14</f>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="S15" s="3">
+        <f>+S13+S14</f>
         <v>171.375</v>
       </c>
-      <c r="P15" s="3">
-        <f>+P13+P14</f>
+      <c r="T15" s="3">
+        <f>+T13+T14</f>
         <v>454.43199999999996</v>
       </c>
-      <c r="Q15" s="3">
-        <f>+Q13+Q14</f>
+      <c r="U15" s="3">
+        <f>+U13+U14</f>
         <v>528.82300000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1138,17 +1214,21 @@
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="O16" s="3">
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="S16" s="3">
         <v>-24.521000000000001</v>
       </c>
-      <c r="P16" s="3">
+      <c r="T16" s="3">
         <v>54.686</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="U16" s="3">
         <v>74.203000000000003</v>
       </c>
     </row>
-    <row r="17" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
@@ -1167,20 +1247,24 @@
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="O17" s="3">
-        <f>+O15-O16</f>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="S17" s="3">
+        <f>+S15-S16</f>
         <v>195.89600000000002</v>
       </c>
-      <c r="P17" s="3">
-        <f>+P15-P16</f>
+      <c r="T17" s="3">
+        <f>+T15-T16</f>
         <v>399.74599999999998</v>
       </c>
-      <c r="Q17" s="3">
-        <f>+Q15-Q16</f>
+      <c r="U17" s="3">
+        <f>+U15-U16</f>
         <v>454.62000000000012</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>23</v>
       </c>
@@ -1197,7 +1281,7 @@
       </c>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
@@ -1214,8 +1298,12 @@
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>28</v>
       </c>
@@ -1233,32 +1321,36 @@
       </c>
       <c r="J21" s="8">
         <f>+J6/F6-1</f>
-        <v>-0.29230132720720325</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="O24" s="3">
+        <v>-0.30881429623903522</v>
+      </c>
+      <c r="K21" s="8">
+        <f>+K6/G6-1</f>
+        <v>0.2559077238325016</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
         <v>352.02800000000002</v>
       </c>
-      <c r="P24" s="3">
+      <c r="T24" s="3">
         <v>744.81700000000001</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="U24" s="3">
         <v>696.78</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="O25" s="3">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
         <v>52.258000000000003</v>
       </c>
-      <c r="P25" s="3">
+      <c r="T25" s="3">
         <v>46.442999999999998</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="U25" s="3">
         <v>110.401</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>38</v>
       </c>
@@ -1271,20 +1363,23 @@
       <c r="I26" s="2">
         <v>117.4</v>
       </c>
-      <c r="O26" s="3">
-        <f t="shared" ref="O26:P26" si="5">+O24-O25</f>
+      <c r="S26" s="3">
+        <f t="shared" ref="S26:T26" si="5">+S24-S25</f>
         <v>299.77000000000004</v>
       </c>
-      <c r="P26" s="3">
+      <c r="T26" s="3">
         <f t="shared" si="5"/>
         <v>698.37400000000002</v>
       </c>
-      <c r="Q26" s="3">
-        <f>+Q24-Q25</f>
+      <c r="U26" s="3">
+        <f>+U24-U25</f>
         <v>586.37900000000002</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{6A4F371D-A6E0-46FD-B691-3EDF76382D4D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
